--- a/src/_data/june-2023-translated-final.xlsx
+++ b/src/_data/june-2023-translated-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\new\mybus-v3\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3618407B-950D-4110-99B1-AD525DA5DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EBBB5-138D-45E1-B5B7-9C844F33B751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="555" windowWidth="26820" windowHeight="18690" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
+    <workbookView xWindow="-20430" yWindow="-8820" windowWidth="19950" windowHeight="19740" activeTab="1" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
   </bookViews>
   <sheets>
     <sheet name="updates" sheetId="2" r:id="rId1"/>
@@ -643,9 +643,6 @@
     <t>Chatsworth Station to North Hollywood Station</t>
   </si>
   <si>
-    <t>Harbor Gateway Transit Center  to El Monte Station</t>
-  </si>
-  <si>
     <t>All trips on Line 92 between 9am-6pm weekdays will be extended to serve the Burbank-Sylmar segment. Service on that segment will be increased to operate every 20 minutes.</t>
   </si>
   <si>
@@ -2411,6 +2408,9 @@
   </si>
   <si>
     <t>Minor timing changes, please check schedule.</t>
+  </si>
+  <si>
+    <t>Harbor Gateway Transit Center to El Monte Station</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2565,19 +2565,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3462,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E7A70-D752-42E3-8C5C-5A7AA7A09360}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3491,52 +3482,52 @@
         <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3547,55 +3538,55 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" t="s">
         <v>465</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" t="s">
         <v>467</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>468</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>469</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O2" t="s">
         <v>563</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" t="s">
         <v>565</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>566</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>567</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -3606,55 +3597,55 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" t="s">
         <v>465</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" t="s">
         <v>467</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>468</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>469</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M3" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O3" t="s">
         <v>563</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" t="s">
         <v>565</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>566</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>567</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3665,55 +3656,55 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4" t="s">
         <v>465</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" t="s">
         <v>467</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>468</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>469</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O4" t="s">
         <v>563</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" t="s">
         <v>565</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>566</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>567</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3724,55 +3715,55 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" t="s">
         <v>465</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" t="s">
         <v>467</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>468</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>469</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O5" t="s">
         <v>563</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" t="s">
         <v>565</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>566</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>567</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -3783,7 +3774,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>118</v>
@@ -3792,49 +3783,49 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" t="s">
         <v>311</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" t="s">
         <v>313</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>314</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>315</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="M6" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="O6" t="s">
         <v>591</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" t="s">
         <v>593</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>594</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>595</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -3845,55 +3836,55 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" t="s">
         <v>318</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" t="s">
         <v>320</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>321</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>322</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="M7" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="O7" t="s">
         <v>493</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" t="s">
         <v>495</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>496</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>497</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -3904,55 +3895,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G8" t="s">
         <v>465</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" t="s">
         <v>467</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>468</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>469</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M8" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N8" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O8" t="s">
         <v>563</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" t="s">
         <v>565</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>566</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>567</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -3963,55 +3954,55 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G9" t="s">
         <v>465</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" t="s">
         <v>467</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>468</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>469</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M9" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O9" t="s">
         <v>563</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" t="s">
         <v>565</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>566</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>567</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -4022,55 +4013,55 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" t="s">
         <v>465</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" t="s">
         <v>467</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>468</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>469</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M10" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N10" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O10" t="s">
         <v>563</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" t="s">
         <v>565</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>566</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>567</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -4081,55 +4072,55 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" t="s">
         <v>465</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" t="s">
         <v>467</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>468</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>469</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M11" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O11" t="s">
         <v>563</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" t="s">
         <v>565</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>566</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>567</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4137,58 +4128,58 @@
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G12" t="s">
         <v>486</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" t="s">
         <v>488</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>489</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>490</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>492</v>
-      </c>
       <c r="M12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N12" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="O12" t="s">
         <v>528</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" t="s">
         <v>530</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>531</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>532</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4199,55 +4190,55 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G13" t="s">
         <v>465</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" t="s">
         <v>467</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>468</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>469</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M13" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N13" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O13" t="s">
         <v>563</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" t="s">
         <v>565</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>566</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>567</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -4258,88 +4249,87 @@
         <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" t="s">
         <v>458</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" t="s">
         <v>460</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>461</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>462</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M14" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N14" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O14" t="s">
         <v>563</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" t="s">
         <v>565</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>566</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>567</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>37</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>790</v>
+      <c r="B15" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -4349,55 +4339,55 @@
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" t="s">
         <v>465</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" t="s">
         <v>467</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>468</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>469</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M16" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O16" t="s">
         <v>563</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" t="s">
         <v>565</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>566</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>567</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -4408,88 +4398,87 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G17" t="s">
         <v>458</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" t="s">
         <v>460</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>461</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>462</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M17" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O17" t="s">
         <v>563</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Q17" t="s">
         <v>565</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>566</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>567</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>48</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>790</v>
+      <c r="B18" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -4499,55 +4488,55 @@
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" t="s">
         <v>458</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" t="s">
         <v>460</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>461</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>462</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M19" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O19" t="s">
         <v>563</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Q19" t="s">
         <v>565</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>566</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>567</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -4558,55 +4547,55 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" t="s">
         <v>332</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" t="s">
         <v>334</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>335</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>336</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="M20" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N20" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="O20" t="s">
         <v>500</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Q20" t="s">
         <v>502</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>503</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>504</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -4617,55 +4606,55 @@
         <v>122</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G21" t="s">
         <v>367</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" t="s">
         <v>369</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>370</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>371</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="M21" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N21" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O21" t="s">
         <v>514</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Q21" t="s">
         <v>516</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>517</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>518</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -4676,55 +4665,55 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G22" t="s">
         <v>465</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" t="s">
         <v>467</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>468</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M22" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O22" t="s">
         <v>563</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="Q22" t="s">
         <v>565</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>566</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>567</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T22" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -4735,55 +4724,55 @@
         <v>14</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G23" t="s">
         <v>458</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" t="s">
         <v>460</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>461</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>462</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M23" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N23" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O23" t="s">
         <v>563</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" t="s">
         <v>565</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>566</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>567</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -4794,55 +4783,55 @@
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G24" t="s">
         <v>465</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" t="s">
         <v>467</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>468</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>469</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M24" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O24" t="s">
         <v>563</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="Q24" t="s">
         <v>565</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>566</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>567</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -4853,55 +4842,55 @@
         <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" t="s">
         <v>430</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" t="s">
         <v>432</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>433</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>434</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="M25" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O25" t="s">
         <v>563</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="Q25" t="s">
         <v>565</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>566</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>567</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -4912,55 +4901,55 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G26" t="s">
         <v>465</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" t="s">
         <v>467</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>468</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>469</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M26" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O26" t="s">
         <v>563</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="Q26" t="s">
         <v>565</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>566</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>567</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -4971,55 +4960,55 @@
         <v>14</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G27" t="s">
         <v>458</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" t="s">
         <v>460</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>461</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>462</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M27" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O27" t="s">
         <v>563</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="Q27" t="s">
         <v>565</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>566</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>567</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -5030,55 +5019,55 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G28" t="s">
         <v>465</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" t="s">
         <v>467</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>468</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>469</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M28" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N28" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O28" t="s">
         <v>563</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="Q28" t="s">
         <v>565</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>566</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>567</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -5089,55 +5078,55 @@
         <v>0</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" t="s">
         <v>353</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" t="s">
         <v>355</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>356</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>357</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="M29" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N29" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="O29" t="s">
         <v>507</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="Q29" t="s">
         <v>509</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>510</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>511</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -5148,55 +5137,55 @@
         <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G30" t="s">
         <v>465</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" t="s">
         <v>467</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>468</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>469</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M30" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N30" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O30" t="s">
         <v>563</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="Q30" t="s">
         <v>565</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>566</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>567</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -5207,55 +5196,55 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" t="s">
         <v>465</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" t="s">
         <v>467</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>468</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>469</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M31" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N31" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O31" t="s">
         <v>563</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="Q31" t="s">
         <v>565</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>566</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>567</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -5266,55 +5255,55 @@
         <v>14</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G32" t="s">
         <v>458</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" t="s">
         <v>460</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>461</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>462</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M32" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N32" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O32" t="s">
         <v>563</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="Q32" t="s">
         <v>565</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>566</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>567</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -5322,58 +5311,58 @@
         <v>92</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="J33" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="K33" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="L33" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="M33" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N33" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="O33" t="s">
         <v>577</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="Q33" t="s">
         <v>579</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>580</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>581</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -5384,55 +5373,55 @@
         <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G34" t="s">
         <v>395</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" t="s">
         <v>397</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>398</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>399</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>401</v>
-      </c>
       <c r="M34" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N34" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="O34" t="s">
         <v>542</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="Q34" t="s">
         <v>544</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>545</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>546</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -5443,55 +5432,55 @@
         <v>16</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G35" t="s">
         <v>451</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" t="s">
         <v>453</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>454</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>455</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="M35" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N35" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O35" t="s">
         <v>563</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="Q35" t="s">
         <v>565</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>566</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>567</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T35" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -5502,55 +5491,55 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G36" t="s">
         <v>465</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" t="s">
         <v>467</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>468</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>469</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M36" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N36" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O36" t="s">
         <v>563</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="Q36" t="s">
         <v>565</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>566</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>567</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T36" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -5561,55 +5550,55 @@
         <v>14</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G37" t="s">
         <v>458</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" t="s">
         <v>460</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>461</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>462</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M37" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O37" t="s">
         <v>563</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="Q37" t="s">
         <v>565</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>566</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>567</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T37" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -5620,55 +5609,55 @@
         <v>17</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G38" t="s">
         <v>416</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" t="s">
         <v>418</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>419</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>420</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="M38" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N38" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O38" t="s">
         <v>563</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="Q38" t="s">
         <v>565</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>566</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>567</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -5679,55 +5668,55 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G39" t="s">
         <v>458</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" t="s">
         <v>460</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>461</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>462</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M39" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N39" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O39" t="s">
         <v>563</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" t="s">
         <v>565</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>566</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>567</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -5738,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>120</v>
@@ -5747,49 +5736,49 @@
         <v>4</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" t="s">
         <v>299</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>300</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>301</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="M40" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N40" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="O40" t="s">
         <v>584</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="Q40" t="s">
         <v>586</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>587</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>588</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="T40" s="6" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -5800,55 +5789,55 @@
         <v>1</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G41" t="s">
         <v>465</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" t="s">
         <v>467</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>468</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>469</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M41" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N41" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O41" t="s">
         <v>563</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" t="s">
         <v>565</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>566</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>567</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T41" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -5859,55 +5848,55 @@
         <v>5</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
         <v>304</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" t="s">
         <v>306</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>307</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>308</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="M42" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N42" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="O42" t="s">
         <v>641</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="Q42" t="s">
         <v>643</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>644</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>645</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="T42" s="6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -5918,55 +5907,55 @@
         <v>14</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G43" t="s">
         <v>458</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" t="s">
         <v>460</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>461</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>462</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M43" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N43" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O43" t="s">
         <v>563</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="Q43" t="s">
         <v>565</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>566</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>567</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -5977,55 +5966,55 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G44" t="s">
         <v>409</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" t="s">
         <v>411</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>412</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>413</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="M44" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O44" t="s">
         <v>563</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="Q44" t="s">
         <v>565</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>566</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>567</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T44" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -6036,55 +6025,55 @@
         <v>18</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G45" t="s">
         <v>409</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" t="s">
         <v>411</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>412</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>413</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="M45" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N45" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O45" t="s">
         <v>563</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="Q45" t="s">
         <v>565</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>566</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>567</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T45" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -6095,55 +6084,55 @@
         <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G46" t="s">
         <v>465</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" t="s">
         <v>467</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>468</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>469</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M46" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N46" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O46" t="s">
         <v>563</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="Q46" t="s">
         <v>565</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>566</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>567</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -6154,55 +6143,55 @@
         <v>1</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G47" t="s">
         <v>465</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" t="s">
         <v>467</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>468</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>469</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M47" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N47" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O47" t="s">
         <v>563</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P47" s="6" t="s">
+      <c r="Q47" t="s">
         <v>565</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>566</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>567</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T47" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -6213,55 +6202,55 @@
         <v>14</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G48" t="s">
         <v>458</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" t="s">
         <v>460</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>461</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>462</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M48" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N48" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O48" t="s">
         <v>563</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" t="s">
         <v>565</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>566</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>567</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -6272,55 +6261,55 @@
         <v>14</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G49" t="s">
         <v>458</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" t="s">
         <v>460</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>461</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>462</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M49" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N49" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O49" t="s">
         <v>563</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P49" s="6" t="s">
+      <c r="Q49" t="s">
         <v>565</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>566</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>567</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -6331,55 +6320,55 @@
         <v>14</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" t="s">
         <v>458</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" t="s">
         <v>460</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>461</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>462</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M50" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O50" t="s">
         <v>563</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P50" s="6" t="s">
+      <c r="Q50" t="s">
         <v>565</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>566</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>567</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -6390,55 +6379,55 @@
         <v>121</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
         <v>374</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" t="s">
         <v>376</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>377</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>378</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="M51" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N51" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O51" t="s">
         <v>514</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P51" s="6" t="s">
+      <c r="Q51" t="s">
         <v>516</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>517</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>518</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T51" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -6449,55 +6438,55 @@
         <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G52" t="s">
         <v>465</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" t="s">
         <v>467</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>468</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>469</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M52" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N52" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O52" t="s">
         <v>563</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P52" s="6" t="s">
+      <c r="Q52" t="s">
         <v>565</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>566</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>567</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T52" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -6508,55 +6497,55 @@
         <v>14</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
         <v>458</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="I53" t="s">
         <v>460</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>461</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>462</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M53" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N53" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O53" t="s">
         <v>563</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="Q53" t="s">
         <v>565</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>566</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>567</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T53" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -6567,55 +6556,55 @@
         <v>7</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" t="s">
         <v>472</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" t="s">
         <v>474</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>475</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>476</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="M54" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N54" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="O54" t="s">
         <v>570</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="Q54" t="s">
         <v>572</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>573</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>574</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="T54" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -6626,55 +6615,55 @@
         <v>1</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" t="s">
         <v>465</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" t="s">
         <v>467</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>468</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>469</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M55" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N55" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O55" t="s">
         <v>563</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P55" s="6" t="s">
+      <c r="Q55" t="s">
         <v>565</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>566</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>567</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -6685,55 +6674,55 @@
         <v>14</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
         <v>458</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" t="s">
         <v>460</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>461</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>462</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M56" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N56" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O56" t="s">
         <v>563</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P56" s="6" t="s">
+      <c r="Q56" t="s">
         <v>565</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>566</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>567</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T56" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -6744,7 +6733,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>119</v>
@@ -6753,49 +6742,49 @@
         <v>8</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G57" t="s">
         <v>402</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" t="s">
         <v>404</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>405</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>406</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="M57" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N57" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="O57" t="s">
         <v>598</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="P57" s="6" t="s">
+      <c r="Q57" t="s">
         <v>600</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>601</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>602</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="T57" s="6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -6806,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>112</v>
@@ -6815,49 +6804,49 @@
         <v>6</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G58" t="s">
         <v>290</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" t="s">
         <v>292</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>293</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>294</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="M58" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N58" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="O58" t="s">
         <v>549</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="Q58" t="s">
         <v>551</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>552</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>553</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="T58" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -6868,55 +6857,55 @@
         <v>121</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" t="s">
         <v>374</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="I59" t="s">
         <v>376</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>377</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>378</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N59" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O59" t="s">
         <v>514</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P59" s="6" t="s">
+      <c r="Q59" t="s">
         <v>516</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>517</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>518</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T59" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -6927,7 +6916,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>113</v>
@@ -6936,49 +6925,49 @@
         <v>9</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
         <v>479</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="I60" t="s">
         <v>481</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>482</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>483</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>485</v>
-      </c>
       <c r="M60" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N60" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="O60" t="s">
         <v>521</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="P60" s="6" t="s">
+      <c r="Q60" t="s">
         <v>523</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>524</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>525</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="T60" s="6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -6989,55 +6978,55 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" t="s">
         <v>465</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" t="s">
         <v>467</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>468</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>469</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M61" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N61" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O61" t="s">
         <v>563</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P61" s="6" t="s">
+      <c r="Q61" t="s">
         <v>565</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>566</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>567</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T61" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -7048,55 +7037,55 @@
         <v>1</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" t="s">
         <v>465</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="I62" t="s">
         <v>467</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>468</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>469</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M62" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N62" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O62" t="s">
         <v>563</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P62" s="6" t="s">
+      <c r="Q62" t="s">
         <v>565</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>566</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>567</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -7107,55 +7096,55 @@
         <v>10</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G63" t="s">
         <v>283</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="I63" t="s">
         <v>285</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>286</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>287</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="L63" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="M63" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N63" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="O63" t="s">
         <v>556</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="Q63" t="s">
         <v>558</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>559</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>560</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="T63" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -7166,55 +7155,55 @@
         <v>1</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G64" t="s">
         <v>465</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="I64" t="s">
         <v>467</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>468</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>469</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L64" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M64" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N64" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O64" t="s">
         <v>563</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="Q64" t="s">
         <v>565</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>566</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>567</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T64" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -7225,55 +7214,55 @@
         <v>1</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G65" t="s">
         <v>465</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="I65" t="s">
         <v>467</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>468</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>469</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L65" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M65" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N65" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O65" t="s">
         <v>563</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P65" s="6" t="s">
+      <c r="Q65" t="s">
         <v>565</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>566</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>567</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T65" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -7284,55 +7273,55 @@
         <v>14</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G66" t="s">
         <v>458</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="I66" t="s">
         <v>460</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>461</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>462</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L66" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M66" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N66" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" t="s">
         <v>563</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P66" s="6" t="s">
+      <c r="Q66" t="s">
         <v>565</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>566</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>567</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T66" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -7343,55 +7332,55 @@
         <v>123</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G67" t="s">
         <v>360</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" t="s">
         <v>362</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>363</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>364</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="M67" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N67" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O67" t="s">
         <v>514</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P67" s="6" t="s">
+      <c r="Q67" t="s">
         <v>516</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>517</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>518</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T67" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -7402,55 +7391,55 @@
         <v>1</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G68" t="s">
         <v>465</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" t="s">
         <v>467</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>468</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>469</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L68" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M68" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N68" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O68" t="s">
         <v>563</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="Q68" t="s">
         <v>565</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>566</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>567</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T68" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -7461,55 +7450,55 @@
         <v>14</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G69" t="s">
         <v>458</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="I69" t="s">
         <v>460</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>461</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>462</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L69" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M69" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N69" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O69" t="s">
         <v>563</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P69" s="6" t="s">
+      <c r="Q69" t="s">
         <v>565</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>566</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>567</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T69" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -7520,55 +7509,55 @@
         <v>1</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" t="s">
         <v>465</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" t="s">
         <v>467</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>468</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>469</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L70" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M70" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N70" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O70" t="s">
         <v>563</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P70" s="6" t="s">
+      <c r="Q70" t="s">
         <v>565</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>566</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>567</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T70" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -7579,55 +7568,55 @@
         <v>14</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G71" t="s">
         <v>458</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="I71" t="s">
         <v>460</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>461</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>462</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L71" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M71" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N71" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s">
         <v>563</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P71" s="6" t="s">
+      <c r="Q71" t="s">
         <v>565</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>566</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>567</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T71" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -7638,88 +7627,87 @@
         <v>1</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G72" t="s">
         <v>465</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" t="s">
         <v>467</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>468</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>469</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L72" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M72" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N72" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O72" t="s">
         <v>563</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="Q72" t="s">
         <v>565</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>566</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>567</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T72" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>224</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>790</v>
+      <c r="B73" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="12"/>
       <c r="M73" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N73" s="21"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N73" s="12"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="12"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
@@ -7729,55 +7717,55 @@
         <v>1</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G74" t="s">
         <v>465</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" t="s">
         <v>467</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>468</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>469</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L74" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M74" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N74" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" t="s">
         <v>563</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" t="s">
         <v>565</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>566</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>567</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T74" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -7788,55 +7776,55 @@
         <v>121</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G75" t="s">
         <v>374</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="I75" t="s">
         <v>376</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>377</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>378</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L75" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="M75" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N75" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O75" t="s">
         <v>514</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="Q75" t="s">
         <v>516</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>517</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>518</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T75" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -7847,55 +7835,55 @@
         <v>124</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" t="s">
         <v>381</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="I76" t="s">
         <v>383</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>384</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>385</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="L76" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="M76" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N76" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O76" t="s">
         <v>514</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P76" s="6" t="s">
+      <c r="Q76" t="s">
         <v>516</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>517</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>518</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T76" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -7906,55 +7894,55 @@
         <v>14</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G77" t="s">
         <v>458</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="I77" t="s">
         <v>460</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>461</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>462</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L77" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M77" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N77" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O77" t="s">
         <v>563</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="Q77" t="s">
         <v>565</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>566</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>567</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T77" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -7965,88 +7953,87 @@
         <v>16</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G78" t="s">
         <v>451</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" t="s">
         <v>453</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>454</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>455</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="L78" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="M78" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N78" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O78" t="s">
         <v>563</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P78" s="6" t="s">
+      <c r="Q78" t="s">
         <v>565</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>566</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>567</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T78" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>237</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>790</v>
+      <c r="B79" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="12"/>
       <c r="M79" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N79" s="21"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N79" s="12"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="12"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
@@ -8056,55 +8043,55 @@
         <v>1</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G80" t="s">
         <v>465</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="I80" t="s">
         <v>467</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>468</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>469</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M80" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N80" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O80" t="s">
         <v>563</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P80" s="6" t="s">
+      <c r="Q80" t="s">
         <v>565</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>566</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>567</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T80" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -8115,55 +8102,55 @@
         <v>14</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G81" t="s">
         <v>458</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="I81" t="s">
         <v>460</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>461</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>462</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L81" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M81" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N81" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O81" t="s">
         <v>563</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P81" s="6" t="s">
+      <c r="Q81" t="s">
         <v>565</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>566</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>567</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T81" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -8174,55 +8161,55 @@
         <v>14</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G82" t="s">
         <v>458</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="I82" t="s">
         <v>460</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>461</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>462</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L82" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M82" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N82" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O82" t="s">
         <v>563</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P82" s="6" t="s">
+      <c r="Q82" t="s">
         <v>565</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>566</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>567</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T82" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -8233,55 +8220,55 @@
         <v>14</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G83" t="s">
         <v>458</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="I83" t="s">
         <v>460</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>461</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>462</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L83" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M83" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N83" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O83" t="s">
         <v>563</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P83" s="6" t="s">
+      <c r="Q83" t="s">
         <v>565</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>566</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>567</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T83" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -8292,55 +8279,55 @@
         <v>1</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" t="s">
         <v>465</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" t="s">
         <v>467</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>468</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>469</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L84" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M84" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N84" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O84" t="s">
         <v>563</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P84" s="6" t="s">
+      <c r="Q84" t="s">
         <v>565</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>566</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>567</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T84" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -8348,58 +8335,58 @@
         <v>251</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F85" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G85" t="s">
         <v>388</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="I85" t="s">
         <v>390</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>391</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>392</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="L85" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="M85" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N85" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="O85" t="s">
         <v>626</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="P85" s="6" t="s">
+      <c r="Q85" t="s">
         <v>628</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>629</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>630</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="T85" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -8410,55 +8397,55 @@
         <v>1</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G86" t="s">
         <v>465</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="I86" t="s">
         <v>467</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>468</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>469</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L86" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M86" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N86" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O86" t="s">
         <v>563</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="Q86" t="s">
         <v>565</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>566</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>567</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T86" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -8466,61 +8453,61 @@
         <v>256</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G87" t="s">
         <v>444</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="I87" t="s">
         <v>446</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>447</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>448</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="L87" s="6" t="s">
-        <v>450</v>
-      </c>
       <c r="M87" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N87" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="O87" t="s">
         <v>535</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="P87" s="6" t="s">
+      <c r="Q87" t="s">
         <v>537</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>538</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>539</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="T87" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -8531,55 +8518,55 @@
         <v>1</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G88" t="s">
         <v>465</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="I88" t="s">
         <v>467</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>468</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>469</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L88" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N88" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O88" t="s">
         <v>563</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="Q88" t="s">
         <v>565</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>566</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>567</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T88" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -8590,7 +8577,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>115</v>
@@ -8599,49 +8586,49 @@
         <v>11</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" t="s">
         <v>276</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" t="s">
         <v>278</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>279</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>280</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L89" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="M89" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N89" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="O89" t="s">
         <v>648</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="Q89" t="s">
         <v>650</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>651</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>652</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="T89" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -8652,55 +8639,55 @@
         <v>14</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G90" t="s">
         <v>458</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" t="s">
         <v>460</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>461</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>462</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L90" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M90" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N90" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O90" t="s">
         <v>563</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P90" s="6" t="s">
+      <c r="Q90" t="s">
         <v>565</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>566</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>567</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T90" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -8711,7 +8698,7 @@
         <v>106</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>116</v>
@@ -8720,49 +8707,49 @@
         <v>106</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G91" t="s">
         <v>325</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" t="s">
         <v>327</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>328</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>329</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="L91" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="M91" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N91" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="O91" t="s">
         <v>612</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="P91" s="6" t="s">
+      <c r="Q91" t="s">
         <v>614</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>615</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>616</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="T91" s="6" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -8773,55 +8760,55 @@
         <v>1</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G92" t="s">
         <v>465</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" t="s">
         <v>467</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>468</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>469</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L92" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M92" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N92" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O92" t="s">
         <v>563</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P92" s="6" t="s">
+      <c r="Q92" t="s">
         <v>565</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>566</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>567</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T92" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -8832,55 +8819,55 @@
         <v>14</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G93" t="s">
         <v>458</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="I93" t="s">
         <v>460</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>461</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>462</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L93" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M93" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N93" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O93" t="s">
         <v>563</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P93" s="6" t="s">
+      <c r="Q93" t="s">
         <v>565</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>566</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>567</v>
       </c>
-      <c r="S93" t="s">
+      <c r="T93" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T93" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -8891,55 +8878,55 @@
         <v>15</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G94" t="s">
         <v>430</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="I94" t="s">
         <v>432</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>433</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>434</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="L94" s="6" t="s">
-        <v>436</v>
-      </c>
       <c r="M94" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N94" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O94" t="s">
         <v>563</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P94" s="6" t="s">
+      <c r="Q94" t="s">
         <v>565</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>566</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>567</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T94" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -8950,55 +8937,55 @@
         <v>1</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G95" t="s">
         <v>465</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="I95" t="s">
         <v>467</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>468</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>469</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L95" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M95" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N95" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O95" t="s">
         <v>563</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P95" s="6" t="s">
+      <c r="Q95" t="s">
         <v>565</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>566</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>567</v>
       </c>
-      <c r="S95" t="s">
+      <c r="T95" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T95" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -9009,147 +8996,146 @@
         <v>12</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G96" t="s">
         <v>423</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="I96" t="s">
         <v>425</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>426</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>427</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="L96" s="6" t="s">
-        <v>429</v>
-      </c>
       <c r="M96" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N96" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="O96" t="s">
         <v>619</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="P96" s="6" t="s">
+      <c r="Q96" t="s">
         <v>621</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>622</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>623</v>
       </c>
-      <c r="S96" t="s">
+      <c r="T96" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="T96" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>602</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>790</v>
+      <c r="B97" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C97" s="18"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="21"/>
+      <c r="E97" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="12"/>
       <c r="M97" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N97" s="21"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="20"/>
-      <c r="T97" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N97" s="12"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="12"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>665</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F98" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G98" t="s">
         <v>339</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="I98" t="s">
         <v>341</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>342</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>343</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="L98" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="M98" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N98" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="O98" t="s">
         <v>605</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="P98" s="6" t="s">
+      <c r="Q98" t="s">
         <v>607</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>608</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>609</v>
       </c>
-      <c r="S98" t="s">
+      <c r="T98" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="T98" s="6" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -9160,55 +9146,55 @@
         <v>21</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G99" t="s">
         <v>346</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" t="s">
         <v>348</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>349</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>350</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="L99" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="M99" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N99" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O99" t="s">
         <v>514</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P99" s="6" t="s">
+      <c r="Q99" t="s">
         <v>516</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>517</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>518</v>
       </c>
-      <c r="S99" t="s">
+      <c r="T99" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T99" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -9219,88 +9205,87 @@
         <v>1</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G100" t="s">
         <v>465</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="I100" t="s">
         <v>467</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>468</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>469</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L100" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M100" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N100" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O100" t="s">
         <v>563</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P100" s="6" t="s">
+      <c r="Q100" t="s">
         <v>565</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>566</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>567</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T100" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>754</v>
       </c>
-      <c r="B101" s="20" t="s">
-        <v>790</v>
+      <c r="B101" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F101" s="21"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F101" s="12"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="12"/>
       <c r="M101" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N101" s="21"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N101" s="12"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="12"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
@@ -9310,120 +9295,118 @@
         <v>14</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G102" t="s">
         <v>458</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="I102" t="s">
         <v>460</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>461</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>462</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="L102" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="M102" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N102" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O102" t="s">
         <v>563</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" t="s">
         <v>565</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>566</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>567</v>
       </c>
-      <c r="S102" t="s">
+      <c r="T102" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T102" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>802</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>790</v>
+      <c r="B103" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="12"/>
       <c r="M103" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N103" s="21"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N103" s="12"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="12"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>807</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>790</v>
+      <c r="B104" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="12"/>
       <c r="M104" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N104" s="21"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N104" s="12"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="12"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
@@ -9433,88 +9416,87 @@
         <v>13</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G105" t="s">
         <v>437</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="I105" t="s">
         <v>439</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>440</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>441</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="L105" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="M105" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N105" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="O105" t="s">
         <v>655</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="P105" s="6" t="s">
+      <c r="Q105" t="s">
         <v>657</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>658</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>659</v>
       </c>
-      <c r="S105" t="s">
+      <c r="T105" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="T105" s="6" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>857</v>
       </c>
-      <c r="B106" s="20" t="s">
-        <v>790</v>
+      <c r="B106" s="9" t="s">
+        <v>789</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="F106" s="21"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="12"/>
       <c r="M106" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="N106" s="21"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="N106" s="12"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="12"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
@@ -9524,55 +9506,55 @@
         <v>1</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G107" t="s">
         <v>465</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="I107" t="s">
         <v>467</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>468</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>469</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="L107" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="M107" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N107" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O107" t="s">
         <v>563</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="P107" s="6" t="s">
+      <c r="Q107" t="s">
         <v>565</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>566</v>
       </c>
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>567</v>
       </c>
-      <c r="S107" t="s">
+      <c r="T107" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="T107" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -9580,58 +9562,58 @@
         <v>910</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C108" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L108" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="N108" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="J108" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="K108" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="L108" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="N108" s="7" t="s">
+      <c r="O108" t="s">
         <v>634</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="P108" s="6" t="s">
+      <c r="Q108" t="s">
         <v>636</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>637</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>638</v>
       </c>
-      <c r="S108" t="s">
+      <c r="T108" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="T108" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -9642,55 +9624,55 @@
         <v>124</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F109" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G109" t="s">
         <v>381</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="I109" t="s">
         <v>383</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>384</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>385</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="L109" s="6" t="s">
-        <v>387</v>
-      </c>
       <c r="M109" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N109" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O109" t="s">
         <v>514</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="P109" s="6" t="s">
+      <c r="Q109" t="s">
         <v>516</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>517</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
         <v>518</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="T109" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -9707,8 +9689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8B66C-CC82-4391-A0D4-0A06AC267444}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9727,7 +9709,7 @@
         <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
         <v>128</v>
@@ -10486,7 +10468,7 @@
         <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -10514,7 +10496,7 @@
         <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,7 +10524,7 @@
         <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10626,7 +10608,7 @@
         <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -10833,7 +10815,7 @@
         <v>602</v>
       </c>
       <c r="D80" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -10900,10 +10882,10 @@
         <v>28</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D85" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -10914,10 +10896,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D86" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -10939,10 +10921,10 @@
         <v>30</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D88" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -10970,7 +10952,7 @@
         <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -10999,210 +10981,210 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1" t="s">
         <v>759</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>760</v>
       </c>
-      <c r="C1" t="s">
-        <v>761</v>
-      </c>
       <c r="D1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E1" t="s">
         <v>764</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>765</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>766</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>767</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>768</v>
-      </c>
-      <c r="I1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3" t="s">
         <v>662</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" t="s">
         <v>664</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>665</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>666</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" t="s">
         <v>669</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" t="s">
         <v>671</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H4" t="s">
         <v>672</v>
       </c>
-      <c r="G4" t="s">
-        <v>671</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" t="s">
         <v>675</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" t="s">
         <v>677</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>678</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>679</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" t="s">
         <v>682</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" t="s">
         <v>684</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>685</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>686</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" t="s">
         <v>745</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" t="s">
         <v>747</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>748</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>749</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" t="s">
         <v>689</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" t="s">
         <v>691</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>692</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>693</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11210,28 +11192,28 @@
         <v>109</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D9" t="s">
         <v>696</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" t="s">
         <v>698</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>699</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>700</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -11239,28 +11221,28 @@
         <v>108</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D10" t="s">
         <v>703</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" t="s">
         <v>705</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>706</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>707</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -11268,28 +11250,28 @@
         <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D11" t="s">
         <v>710</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" t="s">
         <v>712</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>713</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>714</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -11297,144 +11279,144 @@
         <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D12" t="s">
         <v>717</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" t="s">
         <v>719</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>720</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>721</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="D13" t="s">
         <v>724</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" t="s">
         <v>726</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>727</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>728</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" t="s">
         <v>731</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" t="s">
         <v>733</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>734</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>735</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="6" t="s">
         <v>736</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D15" t="s">
         <v>738</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" t="s">
         <v>740</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>741</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>742</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="D16" t="s">
         <v>752</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" t="s">
         <v>754</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>755</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>756</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/src/_data/june-2023-translated-final.xlsx
+++ b/src/_data/june-2023-translated-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\new\mybus-v3\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EBBB5-138D-45E1-B5B7-9C844F33B751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B9AE4-A934-428E-91EA-D18D026157C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20430" yWindow="-8820" windowWidth="19950" windowHeight="19740" activeTab="1" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
+    <workbookView xWindow="435" yWindow="570" windowWidth="19950" windowHeight="19740" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
   </bookViews>
   <sheets>
     <sheet name="updates" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="797">
   <si>
     <t>Line 78 adjusted to operate every 20 minutes on weekends</t>
   </si>
@@ -2411,6 +2411,24 @@
   </si>
   <si>
     <t>Harbor Gateway Transit Center to El Monte Station</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>Back to top</t>
+  </si>
+  <si>
+    <t>backToTop</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>downloadSummary</t>
+  </si>
+  <si>
+    <t>Download Summary</t>
   </si>
 </sst>
 </file>
@@ -3453,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E7A70-D752-42E3-8C5C-5A7AA7A09360}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,13 +4341,27 @@
       <c r="M15" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="12"/>
+      <c r="N15" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O15" t="s">
+        <v>563</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>565</v>
+      </c>
+      <c r="R15" t="s">
+        <v>566</v>
+      </c>
+      <c r="S15" t="s">
+        <v>567</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -4472,13 +4504,27 @@
       <c r="M18" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="12"/>
+      <c r="N18" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O18" t="s">
+        <v>563</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>565</v>
+      </c>
+      <c r="R18" t="s">
+        <v>566</v>
+      </c>
+      <c r="S18" t="s">
+        <v>567</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -7701,13 +7747,27 @@
       <c r="M73" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N73" s="12"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="12"/>
+      <c r="N73" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O73" t="s">
+        <v>563</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>565</v>
+      </c>
+      <c r="R73" t="s">
+        <v>566</v>
+      </c>
+      <c r="S73" t="s">
+        <v>567</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
@@ -8027,13 +8087,27 @@
       <c r="M79" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N79" s="12"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="12"/>
+      <c r="N79" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O79" t="s">
+        <v>563</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>565</v>
+      </c>
+      <c r="R79" t="s">
+        <v>566</v>
+      </c>
+      <c r="S79" t="s">
+        <v>567</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
@@ -9068,13 +9142,27 @@
       <c r="M97" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N97" s="12"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="12"/>
+      <c r="N97" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O97" t="s">
+        <v>563</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>565</v>
+      </c>
+      <c r="R97" t="s">
+        <v>566</v>
+      </c>
+      <c r="S97" t="s">
+        <v>567</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
@@ -9279,13 +9367,27 @@
       <c r="M101" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N101" s="12"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="12"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="12"/>
+      <c r="N101" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O101" t="s">
+        <v>563</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>565</v>
+      </c>
+      <c r="R101" t="s">
+        <v>566</v>
+      </c>
+      <c r="S101" t="s">
+        <v>567</v>
+      </c>
+      <c r="T101" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
@@ -9369,13 +9471,27 @@
       <c r="M103" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N103" s="12"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="12"/>
+      <c r="N103" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O103" t="s">
+        <v>563</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>565</v>
+      </c>
+      <c r="R103" t="s">
+        <v>566</v>
+      </c>
+      <c r="S103" t="s">
+        <v>567</v>
+      </c>
+      <c r="T103" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
@@ -9400,13 +9516,27 @@
       <c r="M104" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N104" s="12"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="12"/>
+      <c r="N104" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O104" t="s">
+        <v>563</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>565</v>
+      </c>
+      <c r="R104" t="s">
+        <v>566</v>
+      </c>
+      <c r="S104" t="s">
+        <v>567</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
@@ -9490,13 +9620,27 @@
       <c r="M106" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="N106" s="12"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="12"/>
+      <c r="N106" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="O106" t="s">
+        <v>563</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>565</v>
+      </c>
+      <c r="R106" t="s">
+        <v>566</v>
+      </c>
+      <c r="S106" t="s">
+        <v>567</v>
+      </c>
+      <c r="T106" s="6" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
@@ -9689,7 +9833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8B66C-CC82-4391-A0D4-0A06AC267444}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -10966,15 +11110,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E787A09F-AFB1-4A95-B59A-5923C3270ABC}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
@@ -11419,6 +11563,30 @@
         <v>757</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>791</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>795</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>793</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/_data/june-2023-translated-final.xlsx
+++ b/src/_data/june-2023-translated-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\new\mybus-v3\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F511FCF-4D33-4A5C-8F7D-F26A8FA8ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0532FB1C-A7E9-48D1-A07A-85420F997D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
+    <workbookView xWindow="330" yWindow="750" windowWidth="17178" windowHeight="11022" activeTab="1" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
   </bookViews>
   <sheets>
     <sheet name="updates" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="800">
   <si>
     <t>Line 78 adjusted to operate every 20 minutes on weekends</t>
   </si>
@@ -2429,13 +2429,22 @@
   </si>
   <si>
     <t>Select Language</t>
+  </si>
+  <si>
+    <t>icon_url</t>
+  </si>
+  <si>
+    <t>https://lacmta.github.io/metro-iconography/Service_ALine.svg</t>
+  </si>
+  <si>
+    <t>https://lacmta.github.io/metro-iconography/Service_KLine.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2485,6 +2494,14 @@
       <color rgb="FF374151"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2532,10 +2549,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2598,8 +2616,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
@@ -3169,13 +3189,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B6FBED3-A523-4AA3-B67B-B7AC18364AAF}" name="Table3" displayName="Table3" ref="A1:D99" totalsRowShown="0">
-  <autoFilter ref="A1:D99" xr:uid="{6B6FBED3-A523-4AA3-B67B-B7AC18364AAF}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B6FBED3-A523-4AA3-B67B-B7AC18364AAF}" name="Table3" displayName="Table3" ref="A1:E99" totalsRowShown="0">
+  <autoFilter ref="A1:E99" xr:uid="{6B6FBED3-A523-4AA3-B67B-B7AC18364AAF}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B598E7EA-51CE-4662-8C3C-CF6FC7A355C3}" name="line"/>
     <tableColumn id="2" xr3:uid="{1B7E6D09-ECC4-47A0-BC0F-BAC452B20F27}" name="schedule"/>
     <tableColumn id="3" xr3:uid="{27AEDE00-3BA8-457B-A7DF-902155D65A4F}" name="line_label" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{2DCFB644-D2A4-43D0-B00E-E9A232611936}" name="description"/>
+    <tableColumn id="5" xr3:uid="{864EF5D8-629B-47F5-8520-0E52B0D5CC37}" name="icon_url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3480,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E7A70-D752-42E3-8C5C-5A7AA7A09360}">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -9966,10 +9987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8B66C-CC82-4391-A0D4-0A06AC267444}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9980,7 +10001,7 @@
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -9993,8 +10014,11 @@
       <c r="D1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10008,7 +10032,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10022,7 +10046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>10</v>
       </c>
@@ -10036,7 +10060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>14</v>
       </c>
@@ -10050,7 +10074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>16</v>
       </c>
@@ -10064,7 +10088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>18</v>
       </c>
@@ -10078,7 +10102,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -10092,7 +10116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>28</v>
       </c>
@@ -10106,7 +10130,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>30</v>
       </c>
@@ -10120,7 +10144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>33</v>
       </c>
@@ -10134,7 +10158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>37</v>
       </c>
@@ -10148,7 +10172,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>40</v>
       </c>
@@ -10162,7 +10186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>45</v>
       </c>
@@ -10176,7 +10200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>48</v>
       </c>
@@ -10190,7 +10214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>51</v>
       </c>
@@ -11097,7 +11121,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>665</v>
       </c>
@@ -11111,7 +11135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>720</v>
       </c>
@@ -11125,7 +11149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>754</v>
       </c>
@@ -11139,7 +11163,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>761</v>
       </c>
@@ -11153,7 +11177,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>802</v>
       </c>
@@ -11166,8 +11190,11 @@
       <c r="D85" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" s="22" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>807</v>
       </c>
@@ -11180,8 +11207,11 @@
       <c r="D86" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" s="22" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>854</v>
       </c>
@@ -11192,7 +11222,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>857</v>
       </c>
@@ -11206,7 +11236,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>901</v>
       </c>
@@ -11219,8 +11249,9 @@
       <c r="D89" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>910</v>
       </c>
@@ -11236,9 +11267,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E85" r:id="rId1" xr:uid="{158A7C20-61C5-46AF-8A6A-B2DD39672ABD}"/>
+    <hyperlink ref="E86" r:id="rId2" xr:uid="{AC905C0C-C82D-4FC2-98BB-74D5DA172210}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/src/_data/june-2023-translated-final.xlsx
+++ b/src/_data/june-2023-translated-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\new\mybus-v3\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0532FB1C-A7E9-48D1-A07A-85420F997D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D7FE9-23E5-4DC2-A4C7-9874B25C5767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="750" windowWidth="17178" windowHeight="11022" activeTab="1" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
   </bookViews>
   <sheets>
     <sheet name="updates" sheetId="2" r:id="rId1"/>
@@ -436,39 +436,21 @@
     <t>West Hollywood to Avalon Station</t>
   </si>
   <si>
-    <t>Cedars Sinai Medical Center to Washington/Fairfax</t>
-  </si>
-  <si>
     <t>West Hollywood to Downtown LA</t>
   </si>
   <si>
-    <t>Wilshire/Western Station to Montebello Metrolink Station</t>
-  </si>
-  <si>
-    <t>Westwood/Santa Monica to Downtown LA</t>
-  </si>
-  <si>
     <t>Century City to Downtown LA</t>
   </si>
   <si>
     <t>Pico Rimpau Transit Center to Indiana Station</t>
   </si>
   <si>
-    <t>South Bay/Redondo Beach Transit Center to Downtown LA</t>
-  </si>
-  <si>
     <t>Harbor Freeway Station to Lincoln Heights</t>
   </si>
   <si>
-    <t>CSU Dominguez Hills to Westlake/MacArthur Park Station</t>
-  </si>
-  <si>
     <t>CSU Dominguez Hills to Downtown LA</t>
   </si>
   <si>
-    <t>Willowbrook/Rosa Parks Station to Downtown LA</t>
-  </si>
-  <si>
     <t>Artesia Station to Downtown LA</t>
   </si>
   <si>
@@ -511,9 +493,6 @@
     <t>Playa Del Rey to Norwalk</t>
   </si>
   <si>
-    <t>Aviation/LAX Station to Whittwood Center</t>
-  </si>
-  <si>
     <t>Compton Station to Cerritos Towne Center</t>
   </si>
   <si>
@@ -568,15 +547,6 @@
     <t>Crenshaw Station to Hollywood</t>
   </si>
   <si>
-    <t>South Bay/Redondo Beach Transit Center to Hollywood/Vine Station</t>
-  </si>
-  <si>
-    <t>Hawthorne/Lennox Station to Hollywood/Vine Station</t>
-  </si>
-  <si>
-    <t>La Cienega Station to Vermont/Sunset Station</t>
-  </si>
-  <si>
     <t>Long Beach to LAX City Bus Center</t>
   </si>
   <si>
@@ -589,9 +559,6 @@
     <t>Encino to Sylmar Metrolink Station</t>
   </si>
   <si>
-    <t>Northridge to Universal/Studio City Station</t>
-  </si>
-  <si>
     <t>Tarzana to Northridge</t>
   </si>
   <si>
@@ -634,12 +601,6 @@
     <t>Cal State LA to Indiana Station</t>
   </si>
   <si>
-    <t>Expo/Sepulveda Station to Sylmar Station</t>
-  </si>
-  <si>
-    <t>Union Station to Pico/Aliso Station</t>
-  </si>
-  <si>
     <t>Chatsworth Station to North Hollywood Station</t>
   </si>
   <si>
@@ -2386,12 +2347,6 @@
     <t>Long Beach to Azusa</t>
   </si>
   <si>
-    <t>Aviation/LAX Station to Hindry/Florence Station</t>
-  </si>
-  <si>
-    <t>Westchester/Veterans to Expo/Crenshaw</t>
-  </si>
-  <si>
     <t>Redondo Beach Transit Center to Downtown Inglewood</t>
   </si>
   <si>
@@ -2438,6 +2393,51 @@
   </si>
   <si>
     <t>https://lacmta.github.io/metro-iconography/Service_KLine.svg</t>
+  </si>
+  <si>
+    <t>Cedars Sinai Medical Center to Washington / Fairfax</t>
+  </si>
+  <si>
+    <t>Wilshire / Western Station to Montebello Metrolink Station</t>
+  </si>
+  <si>
+    <t>Westwood / Santa Monica to Downtown LA</t>
+  </si>
+  <si>
+    <t>South Bay / Redondo Beach Transit Center to Downtown LA</t>
+  </si>
+  <si>
+    <t>CSU Dominguez Hills to Westlake / MacArthur Park Station</t>
+  </si>
+  <si>
+    <t>Willowbrook / Rosa Parks Station to Downtown LA</t>
+  </si>
+  <si>
+    <t>Aviation / LAX Station to Whittwood Center</t>
+  </si>
+  <si>
+    <t>South Bay / Redondo Beach Transit Center to Hollywood / Vine Station</t>
+  </si>
+  <si>
+    <t>Hawthorne / Lennox Station to Hollywood / Vine Station</t>
+  </si>
+  <si>
+    <t>La Cienega Station to Vermont / Sunset Station</t>
+  </si>
+  <si>
+    <t>Northridge to Universal / Studio City Station</t>
+  </si>
+  <si>
+    <t>Expo / Sepulveda Station to Sylmar Station</t>
+  </si>
+  <si>
+    <t>Westchester / Veterans to Expo / Crenshaw</t>
+  </si>
+  <si>
+    <t>Union Station to Pico / Aliso Station</t>
+  </si>
+  <si>
+    <t>Aviation / LAX Station to Hindry / Florence Station</t>
   </si>
 </sst>
 </file>
@@ -3530,52 +3530,52 @@
         <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3586,55 +3586,55 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3645,55 +3645,55 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G3" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I3" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O3" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q3" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R3" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S3" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3704,55 +3704,55 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G4" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I4" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O4" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q4" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R4" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S4" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3763,55 +3763,55 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G5" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I5" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J5" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K5" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O5" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q5" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R5" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S5" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3822,7 +3822,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>118</v>
@@ -3831,49 +3831,49 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="J6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="O6" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="Q6" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="R6" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="S6" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3884,55 +3884,55 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="J7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="K7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="O7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="Q7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="R7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="S7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -3943,55 +3943,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I8" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K8" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O8" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q8" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S8" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4002,55 +4002,55 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G9" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I9" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J9" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K9" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O9" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q9" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R9" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S9" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4061,55 +4061,55 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I10" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K10" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O10" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q10" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R10" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S10" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4120,55 +4120,55 @@
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G11" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I11" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J11" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K11" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O11" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q11" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R11" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S11" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4176,58 +4176,58 @@
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G12" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="I12" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="J12" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="K12" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="O12" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="Q12" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="R12" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="S12" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4238,55 +4238,55 @@
         <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G13" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J13" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K13" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O13" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q13" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R13" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S13" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4297,55 +4297,55 @@
         <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G14" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I14" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J14" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K14" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O14" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q14" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R14" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S14" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4353,58 +4353,58 @@
         <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O15" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q15" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R15" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S15" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4415,55 +4415,55 @@
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G16" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J16" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K16" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O16" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q16" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R16" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S16" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4474,55 +4474,55 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G17" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I17" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J17" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K17" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O17" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q17" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R17" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S17" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4530,58 +4530,58 @@
         <v>48</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O18" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q18" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R18" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S18" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4592,55 +4592,55 @@
         <v>14</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G19" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I19" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J19" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K19" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O19" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q19" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R19" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S19" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4651,55 +4651,55 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="K20" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="O20" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="Q20" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="R20" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="S20" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4710,55 +4710,55 @@
         <v>122</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I21" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J21" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="K21" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O21" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q21" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R21" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S21" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4769,55 +4769,55 @@
         <v>1</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G22" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I22" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J22" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K22" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O22" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q22" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R22" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S22" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4828,55 +4828,55 @@
         <v>14</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G23" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I23" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J23" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K23" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O23" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q23" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R23" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S23" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4887,55 +4887,55 @@
         <v>1</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G24" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I24" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J24" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K24" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O24" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q24" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R24" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S24" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4946,55 +4946,55 @@
         <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G25" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I25" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="J25" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K25" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O25" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q25" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R25" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S25" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5005,55 +5005,55 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I26" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J26" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K26" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O26" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q26" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R26" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S26" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5064,55 +5064,55 @@
         <v>14</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G27" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I27" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J27" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K27" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O27" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q27" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R27" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S27" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5123,55 +5123,55 @@
         <v>1</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G28" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I28" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J28" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K28" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O28" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q28" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R28" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S28" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5182,55 +5182,55 @@
         <v>0</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G29" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I29" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="J29" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="K29" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="O29" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="Q29" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="R29" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="S29" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5241,55 +5241,55 @@
         <v>1</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I30" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J30" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K30" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O30" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q30" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R30" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S30" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5300,55 +5300,55 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G31" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I31" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J31" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K31" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O31" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q31" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R31" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S31" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5359,55 +5359,55 @@
         <v>14</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G32" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I32" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J32" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K32" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O32" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q32" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R32" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S32" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5415,58 +5415,58 @@
         <v>92</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="O33" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="Q33" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="R33" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="S33" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5477,55 +5477,55 @@
         <v>3</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G34" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I34" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="J34" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K34" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="O34" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="Q34" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="R34" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="S34" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5536,55 +5536,55 @@
         <v>16</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G35" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="I35" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="J35" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="K35" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O35" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q35" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R35" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S35" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5595,55 +5595,55 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J36" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K36" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O36" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q36" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R36" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S36" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5654,55 +5654,55 @@
         <v>14</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G37" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I37" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J37" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K37" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O37" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q37" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R37" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S37" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5713,55 +5713,55 @@
         <v>17</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G38" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I38" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J38" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="K38" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O38" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q38" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R38" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S38" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5772,55 +5772,55 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G39" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I39" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J39" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K39" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O39" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q39" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R39" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S39" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5831,7 +5831,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>120</v>
@@ -5840,49 +5840,49 @@
         <v>4</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="J40" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="O40" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="Q40" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="R40" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="S40" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5893,55 +5893,55 @@
         <v>1</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G41" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I41" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J41" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K41" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O41" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q41" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R41" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S41" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5952,55 +5952,55 @@
         <v>5</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G42" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="J42" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K42" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="O42" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="Q42" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="R42" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="S42" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6011,55 +6011,55 @@
         <v>14</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G43" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I43" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J43" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K43" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O43" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q43" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R43" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S43" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6070,55 +6070,55 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G44" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I44" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O44" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q44" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R44" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S44" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6129,55 +6129,55 @@
         <v>18</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="I45" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O45" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q45" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R45" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S45" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6188,55 +6188,55 @@
         <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I46" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O46" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q46" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R46" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S46" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6247,55 +6247,55 @@
         <v>1</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I47" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O47" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q47" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R47" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S47" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6306,55 +6306,55 @@
         <v>14</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G48" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I48" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J48" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K48" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O48" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q48" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R48" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S48" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6365,55 +6365,55 @@
         <v>14</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I49" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O49" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q49" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R49" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S49" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6424,55 +6424,55 @@
         <v>14</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G50" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I50" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J50" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O50" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q50" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R50" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S50" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6483,55 +6483,55 @@
         <v>121</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="I51" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K51" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O51" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q51" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R51" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S51" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6542,55 +6542,55 @@
         <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O52" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q52" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R52" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S52" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6601,55 +6601,55 @@
         <v>14</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G53" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I53" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O53" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q53" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R53" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S53" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6660,55 +6660,55 @@
         <v>7</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="O54" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="Q54" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="R54" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="S54" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6719,55 +6719,55 @@
         <v>1</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G55" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I55" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O55" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q55" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R55" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S55" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6778,55 +6778,55 @@
         <v>14</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O56" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q56" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R56" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S56" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6837,7 +6837,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>119</v>
@@ -6846,49 +6846,49 @@
         <v>8</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G57" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="I57" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="K57" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="O57" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="Q57" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="R57" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="S57" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6899,7 +6899,7 @@
         <v>6</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>112</v>
@@ -6908,49 +6908,49 @@
         <v>6</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="O58" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="Q58" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="R58" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="S58" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -6961,55 +6961,55 @@
         <v>121</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="I59" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J59" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K59" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O59" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q59" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R59" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S59" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7020,7 +7020,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>113</v>
@@ -7029,49 +7029,49 @@
         <v>9</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="I60" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="J60" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="K60" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="O60" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="Q60" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="R60" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="S60" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7082,55 +7082,55 @@
         <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I61" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J61" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K61" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O61" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q61" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R61" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S61" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7141,55 +7141,55 @@
         <v>1</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G62" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I62" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J62" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O62" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q62" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R62" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S62" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7200,55 +7200,55 @@
         <v>10</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="I63" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="J63" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K63" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="O63" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="Q63" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="R63" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="S63" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7259,55 +7259,55 @@
         <v>1</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I64" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J64" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K64" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O64" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q64" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R64" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S64" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7318,55 +7318,55 @@
         <v>1</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I65" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J65" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K65" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O65" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q65" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R65" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S65" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7377,55 +7377,55 @@
         <v>14</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G66" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I66" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J66" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K66" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O66" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q66" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R66" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S66" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7436,55 +7436,55 @@
         <v>123</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>123</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G67" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I67" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="J67" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="K67" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q67" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R67" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S67" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7495,55 +7495,55 @@
         <v>1</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G68" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I68" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J68" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K68" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O68" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q68" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R68" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S68" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7554,55 +7554,55 @@
         <v>14</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G69" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I69" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J69" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K69" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O69" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q69" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R69" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S69" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7613,55 +7613,55 @@
         <v>1</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G70" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I70" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J70" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O70" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q70" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R70" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S70" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7672,55 +7672,55 @@
         <v>14</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G71" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I71" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J71" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K71" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O71" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q71" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R71" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S71" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7731,55 +7731,55 @@
         <v>1</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G72" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I72" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J72" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K72" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O72" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q72" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R72" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S72" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7787,58 +7787,58 @@
         <v>224</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O73" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q73" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R73" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S73" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7849,55 +7849,55 @@
         <v>1</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G74" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I74" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J74" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K74" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O74" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q74" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R74" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S74" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T74" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7908,55 +7908,55 @@
         <v>121</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="I75" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="J75" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="K75" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O75" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q75" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R75" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S75" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -7967,55 +7967,55 @@
         <v>124</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G76" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="I76" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="J76" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K76" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O76" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q76" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R76" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S76" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T76" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8026,55 +8026,55 @@
         <v>14</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G77" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I77" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J77" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K77" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O77" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q77" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R77" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S77" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T77" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8085,55 +8085,55 @@
         <v>16</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G78" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="I78" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="J78" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="K78" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O78" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q78" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R78" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S78" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8141,58 +8141,58 @@
         <v>237</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O79" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q79" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R79" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S79" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T79" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8203,55 +8203,55 @@
         <v>1</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G80" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I80" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J80" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K80" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O80" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q80" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R80" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S80" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T80" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8262,55 +8262,55 @@
         <v>14</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G81" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I81" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J81" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K81" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O81" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q81" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R81" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S81" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T81" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8321,55 +8321,55 @@
         <v>14</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G82" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I82" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J82" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K82" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O82" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q82" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R82" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S82" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8380,55 +8380,55 @@
         <v>14</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G83" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I83" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J83" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K83" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O83" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q83" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R83" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S83" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T83" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8439,55 +8439,55 @@
         <v>1</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G84" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I84" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J84" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K84" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O84" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P84" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q84" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R84" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S84" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T84" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8495,58 +8495,58 @@
         <v>251</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G85" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="I85" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="J85" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="K85" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="O85" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="P85" s="6" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="Q85" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="R85" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="S85" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="T85" s="6" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8557,55 +8557,55 @@
         <v>1</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G86" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I86" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J86" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K86" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O86" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q86" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R86" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S86" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T86" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8613,61 +8613,61 @@
         <v>256</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G87" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="I87" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="J87" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="K87" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="O87" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="Q87" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="R87" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="S87" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="T87" s="6" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8678,55 +8678,55 @@
         <v>1</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G88" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I88" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J88" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K88" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O88" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P88" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q88" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R88" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S88" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T88" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8737,7 +8737,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>115</v>
@@ -8746,49 +8746,49 @@
         <v>11</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I89" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J89" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K89" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="O89" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="Q89" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="R89" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="S89" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="T89" s="6" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8799,55 +8799,55 @@
         <v>14</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G90" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I90" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J90" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K90" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O90" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q90" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R90" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S90" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8858,7 +8858,7 @@
         <v>106</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>116</v>
@@ -8867,49 +8867,49 @@
         <v>106</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G91" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I91" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J91" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="K91" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="O91" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="Q91" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="R91" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="S91" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8920,55 +8920,55 @@
         <v>1</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G92" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I92" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J92" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K92" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O92" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q92" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R92" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S92" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T92" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -8979,55 +8979,55 @@
         <v>14</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G93" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I93" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J93" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K93" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O93" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q93" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R93" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S93" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T93" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9038,55 +9038,55 @@
         <v>15</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G94" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="I94" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="J94" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K94" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O94" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q94" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R94" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S94" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T94" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9097,55 +9097,55 @@
         <v>1</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I95" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J95" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K95" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O95" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q95" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R95" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S95" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T95" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9156,55 +9156,55 @@
         <v>12</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G96" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I96" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="J96" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="K96" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="O96" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="Q96" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="R96" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="S96" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9212,56 +9212,56 @@
         <v>602</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C97" s="18"/>
       <c r="E97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O97" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q97" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R97" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S97" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9269,61 +9269,61 @@
         <v>665</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="G98" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="I98" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J98" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="K98" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="O98" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="Q98" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="R98" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="S98" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9334,55 +9334,55 @@
         <v>21</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G99" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="I99" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J99" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K99" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O99" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q99" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R99" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S99" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T99" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9393,55 +9393,55 @@
         <v>1</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G100" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I100" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J100" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K100" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O100" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q100" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R100" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S100" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T100" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9449,58 +9449,58 @@
         <v>754</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O101" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q101" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R101" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S101" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T101" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9511,55 +9511,55 @@
         <v>14</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G102" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I102" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J102" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K102" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O102" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q102" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R102" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S102" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T102" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9567,58 +9567,58 @@
         <v>802</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O103" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q103" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R103" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S103" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T103" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9626,58 +9626,58 @@
         <v>807</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O104" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q104" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R104" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S104" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T104" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9688,55 +9688,55 @@
         <v>13</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="G105" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I105" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="J105" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="K105" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="O105" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="Q105" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="R105" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="S105" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9744,58 +9744,58 @@
         <v>857</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O106" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q106" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R106" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S106" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T106" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9806,55 +9806,55 @@
         <v>1</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G107" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I107" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="J107" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="K107" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O107" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q107" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="R107" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="S107" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9862,58 +9862,58 @@
         <v>910</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="O108" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="P108" s="6" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="Q108" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="R108" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="S108" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -9924,55 +9924,55 @@
         <v>124</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G109" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="I109" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="J109" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="K109" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O109" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="P109" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q109" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R109" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="S109" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -9989,8 +9989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8B66C-CC82-4391-A0D4-0A06AC267444}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10009,13 +10009,13 @@
         <v>110</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
         <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10071,7 +10071,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10085,7 +10085,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10099,7 +10099,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10113,7 +10113,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10127,7 +10127,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10141,7 +10141,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10169,7 +10169,7 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10183,7 +10183,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10197,7 +10197,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10225,7 +10225,7 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10239,7 +10239,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10253,7 +10253,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10267,7 +10267,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10281,7 +10281,7 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10295,7 +10295,7 @@
         <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10309,7 +10309,7 @@
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10323,7 +10323,7 @@
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10337,7 +10337,7 @@
         <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10351,7 +10351,7 @@
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10365,7 +10365,7 @@
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10379,7 +10379,7 @@
         <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10393,7 +10393,7 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10407,7 +10407,7 @@
         <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10421,7 +10421,7 @@
         <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10435,7 +10435,7 @@
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10449,7 +10449,7 @@
         <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10463,7 +10463,7 @@
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10477,7 +10477,7 @@
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10491,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10505,7 +10505,7 @@
         <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10519,7 +10519,7 @@
         <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10533,7 +10533,7 @@
         <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10547,7 +10547,7 @@
         <v>152</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10561,7 +10561,7 @@
         <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10575,7 +10575,7 @@
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10589,7 +10589,7 @@
         <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10603,7 +10603,7 @@
         <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10617,7 +10617,7 @@
         <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10631,7 +10631,7 @@
         <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10645,7 +10645,7 @@
         <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10659,7 +10659,7 @@
         <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10673,7 +10673,7 @@
         <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10687,7 +10687,7 @@
         <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10701,7 +10701,7 @@
         <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10715,7 +10715,7 @@
         <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10729,7 +10729,7 @@
         <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10743,7 +10743,7 @@
         <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10757,7 +10757,7 @@
         <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10771,7 +10771,7 @@
         <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10785,7 +10785,7 @@
         <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10799,7 +10799,7 @@
         <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10813,7 +10813,7 @@
         <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10827,7 +10827,7 @@
         <v>224</v>
       </c>
       <c r="D59" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10841,7 +10841,7 @@
         <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10855,7 +10855,7 @@
         <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10869,7 +10869,7 @@
         <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10883,7 +10883,7 @@
         <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10897,7 +10897,7 @@
         <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10911,7 +10911,7 @@
         <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10925,7 +10925,7 @@
         <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10939,7 +10939,7 @@
         <v>242</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10953,7 +10953,7 @@
         <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10967,7 +10967,7 @@
         <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10981,7 +10981,7 @@
         <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10995,7 +10995,7 @@
         <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11009,7 +11009,7 @@
         <v>256</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11020,7 +11020,7 @@
         <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11034,7 +11034,7 @@
         <v>260</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11048,7 +11048,7 @@
         <v>267</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11062,7 +11062,7 @@
         <v>344</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11076,7 +11076,7 @@
         <v>460</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11090,7 +11090,7 @@
         <v>501</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11104,7 +11104,7 @@
         <v>550</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11118,7 +11118,7 @@
         <v>602</v>
       </c>
       <c r="D80" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11132,7 +11132,7 @@
         <v>665</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11160,7 +11160,7 @@
         <v>754</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11174,7 +11174,7 @@
         <v>761</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11185,13 +11185,13 @@
         <v>28</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D85" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11202,13 +11202,13 @@
         <v>29</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="D86" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11219,7 +11219,7 @@
         <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>199</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11230,10 +11230,10 @@
         <v>30</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="D88" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -11247,7 +11247,7 @@
         <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E89" s="22"/>
     </row>
@@ -11262,7 +11262,7 @@
         <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -11294,210 +11294,210 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="B1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="C1" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="D1" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="E1" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F1" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G1" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="H1" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="I1" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D3" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F3" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="G3" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="H3" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F4" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G4" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H4" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D5" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F5" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G5" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="H5" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="19" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="D7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="F7" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="H7" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F8" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G8" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="H8" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11505,28 +11505,28 @@
         <v>109</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D9" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F9" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="H9" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11534,28 +11534,28 @@
         <v>108</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D10" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F10" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="G10" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="H10" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11563,28 +11563,28 @@
         <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D11" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F11" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H11" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11592,168 +11592,168 @@
         <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D12" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F12" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G12" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="H12" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D13" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="G13" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="H13" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D14" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F14" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G14" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H14" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D15" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F15" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="G15" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="H15" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F16" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="G16" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="H16" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/src/_data/june-2023-translated-final.xlsx
+++ b/src/_data/june-2023-translated-final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochaphuma\repos\metro\mybus-v3\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE62F39-13AC-47C1-97C0-8C154BE0DB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6688D9-81CC-456E-84EB-8F2BEF02406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12075" xr2:uid="{74382335-5AEE-466B-91D9-2624957AED8F}"/>
   </bookViews>
@@ -2438,7 +2438,7 @@
     <t>https://lacmta.github.io/metro-iconography/Service_BLine.svg</t>
   </si>
   <si>
-    <t>The L Line Shuttle between LA Union Station and Pico Aliso Station will cease operation on Saturday, June 18.</t>
+    <t>The L Line Shuttle between LA Union Station and Pico Aliso Station will cease operation on Saturday, June 17.</t>
   </si>
 </sst>
 </file>
@@ -3503,7 +3503,7 @@
   <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
